--- a/data sheets/Summary Stats.jblm.xlsx
+++ b/data sheets/Summary Stats.jblm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="fire effects" sheetId="1" r:id="rId1"/>
@@ -3074,7 +3074,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
@@ -4987,7 +4987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/data sheets/Summary Stats.jblm.xlsx
+++ b/data sheets/Summary Stats.jblm.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="fire effects" sheetId="1" r:id="rId1"/>
-    <sheet name="dieback" sheetId="10" r:id="rId2"/>
-    <sheet name="fuel moistures" sheetId="3" r:id="rId3"/>
-    <sheet name="sprouters vs non" sheetId="6" r:id="rId4"/>
-    <sheet name="cvs=100" sheetId="11" r:id="rId5"/>
-    <sheet name="pca loadings" sheetId="2" r:id="rId6"/>
-    <sheet name="duff" sheetId="4" r:id="rId7"/>
-    <sheet name="ROS" sheetId="7" r:id="rId8"/>
-    <sheet name="top-kill" sheetId="8" r:id="rId9"/>
-    <sheet name="permanova" sheetId="5" r:id="rId10"/>
+    <sheet name="fofem comp" sheetId="12" r:id="rId2"/>
+    <sheet name="dieback" sheetId="10" r:id="rId3"/>
+    <sheet name="fuel moistures" sheetId="3" r:id="rId4"/>
+    <sheet name="sprouters vs non" sheetId="6" r:id="rId5"/>
+    <sheet name="cvs=100" sheetId="11" r:id="rId6"/>
+    <sheet name="pca loadings" sheetId="2" r:id="rId7"/>
+    <sheet name="duff" sheetId="4" r:id="rId8"/>
+    <sheet name="ROS" sheetId="7" r:id="rId9"/>
+    <sheet name="top-kill" sheetId="8" r:id="rId10"/>
+    <sheet name="permanova" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="263">
   <si>
     <t>HLD01</t>
   </si>
@@ -50,75 +51,21 @@
     <t>HLD 01</t>
   </si>
   <si>
-    <t>55.59 (48.93)</t>
-  </si>
-  <si>
-    <t>91.59 (108.75)</t>
-  </si>
-  <si>
-    <t>28.84 (37.57)</t>
-  </si>
-  <si>
-    <t>0.85 (5.65)</t>
-  </si>
-  <si>
-    <t>15.8 (25.62)</t>
-  </si>
-  <si>
-    <t>2.00 (8.33)</t>
-  </si>
-  <si>
     <t>70.02 (33.88)</t>
   </si>
   <si>
-    <t>50.3 (31.84)</t>
-  </si>
-  <si>
-    <t>19.66 (26.27)</t>
-  </si>
-  <si>
-    <t>70.2 (31.53)</t>
-  </si>
-  <si>
     <t>67.3 (40.3)</t>
   </si>
   <si>
-    <t>66.02 (36.37)</t>
-  </si>
-  <si>
-    <t>38.1 (31.34)</t>
-  </si>
-  <si>
-    <t>28.49 (22.78)</t>
-  </si>
-  <si>
-    <t>9.14 (16.62)</t>
-  </si>
-  <si>
-    <t>9.2 (21.72)</t>
-  </si>
-  <si>
-    <t>11.3 (22.79)</t>
-  </si>
-  <si>
-    <t>10 (23.71)</t>
-  </si>
-  <si>
     <t>BCC (%)</t>
   </si>
   <si>
-    <t>PCVS (%)</t>
-  </si>
-  <si>
     <t>Duff consumed (%)</t>
   </si>
   <si>
     <t>DBHCC (%)</t>
   </si>
   <si>
-    <t>PCVSP (%)</t>
-  </si>
-  <si>
     <t>Bole char height (cm)</t>
   </si>
   <si>
@@ -368,18 +315,6 @@
     <t>h/psi</t>
   </si>
   <si>
-    <t>70.2 (31.4)</t>
-  </si>
-  <si>
-    <t>66.4 (30.7)</t>
-  </si>
-  <si>
-    <t>74 (31.7)</t>
-  </si>
-  <si>
-    <t>Spring bud break (%)</t>
-  </si>
-  <si>
     <t>Estimate</t>
   </si>
   <si>
@@ -441,15 +376,6 @@
   </si>
   <si>
     <t>Duff consumed (cm)</t>
-  </si>
-  <si>
-    <t>3.26 (2.76)</t>
-  </si>
-  <si>
-    <t>0.30 (0.64)</t>
-  </si>
-  <si>
-    <t>1.62 (1.46)</t>
   </si>
   <si>
     <t>29.8 (31.4)</t>
@@ -777,13 +703,158 @@
   <si>
     <t>HLD 02</t>
   </si>
+  <si>
+    <t>HLD02</t>
+  </si>
+  <si>
+    <t>bch.m</t>
+  </si>
+  <si>
+    <t>bch.sd</t>
+  </si>
+  <si>
+    <t>bcc.m</t>
+  </si>
+  <si>
+    <t>bcc.sd</t>
+  </si>
+  <si>
+    <t>dbhcc.m</t>
+  </si>
+  <si>
+    <t>dbhcc.sd</t>
+  </si>
+  <si>
+    <t>pcvs.m</t>
+  </si>
+  <si>
+    <t>pcvs.sd</t>
+  </si>
+  <si>
+    <t>duff.cm.m</t>
+  </si>
+  <si>
+    <t>duff.cm.sd</t>
+  </si>
+  <si>
+    <t>duff.per.m</t>
+  </si>
+  <si>
+    <t>duff.per.sd</t>
+  </si>
+  <si>
+    <t>dieback.m</t>
+  </si>
+  <si>
+    <t>dieback.sd</t>
+  </si>
+  <si>
+    <t>54.7 (48.8)</t>
+  </si>
+  <si>
+    <t>38.1 (74.4)</t>
+  </si>
+  <si>
+    <t>91.6 (108.8)</t>
+  </si>
+  <si>
+    <t>28.8 (37.6)</t>
+  </si>
+  <si>
+    <t>15.8 (25.6)</t>
+  </si>
+  <si>
+    <t>25.8 (36.5)</t>
+  </si>
+  <si>
+    <t>50.3 (31.8)</t>
+  </si>
+  <si>
+    <t>19.7 (26.2)</t>
+  </si>
+  <si>
+    <t>69 (32.3)</t>
+  </si>
+  <si>
+    <t>49.2 (41.6)</t>
+  </si>
+  <si>
+    <t>66.1 (36.4)</t>
+  </si>
+  <si>
+    <t>3.3 (2.8)</t>
+  </si>
+  <si>
+    <t>1.6 (1.5)</t>
+  </si>
+  <si>
+    <t>0.3 (0.6)</t>
+  </si>
+  <si>
+    <t>0.6 (1.2)</t>
+  </si>
+  <si>
+    <t>5.7 (17.6)</t>
+  </si>
+  <si>
+    <t>5.6 (19)</t>
+  </si>
+  <si>
+    <t>2 (8.33)</t>
+  </si>
+  <si>
+    <t>37.4 (31.5)</t>
+  </si>
+  <si>
+    <t>9.4 (17.2)</t>
+  </si>
+  <si>
+    <t>28.5 (22.8)</t>
+  </si>
+  <si>
+    <t>9.1 (16.6)</t>
+  </si>
+  <si>
+    <t>21.9 (25.9)</t>
+  </si>
+  <si>
+    <t>Crown scorch (%)</t>
+  </si>
+  <si>
+    <t>Fall sprouting (%)</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>9.2 (21.7)</t>
+  </si>
+  <si>
+    <t>11.3 (22.8)</t>
+  </si>
+  <si>
+    <t>10 (23.7)</t>
+  </si>
+  <si>
+    <t>Percent mortality</t>
+  </si>
+  <si>
+    <t>Dbh killed trees</t>
+  </si>
+  <si>
+    <t>Fofem</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -919,7 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -993,6 +1064,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1137,7 +1213,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2311,10 +2386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2324,384 +2399,620 @@
     <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="4" max="4" width="14.5546875" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>215</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H2" s="38">
+        <v>54.729410000000001</v>
+      </c>
+      <c r="I2" s="38">
+        <v>38.06</v>
+      </c>
+      <c r="J2" s="38">
+        <v>91.585999999999999</v>
+      </c>
+      <c r="K2" s="38">
+        <v>28.841999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="38">
+        <v>48.821109999999997</v>
+      </c>
+      <c r="I3" s="38">
+        <v>74.384110000000007</v>
+      </c>
+      <c r="J3" s="38">
+        <v>108.75046</v>
+      </c>
+      <c r="K3" s="38">
+        <v>37.570979999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H4" s="38">
+        <v>70.607839999999996</v>
+      </c>
+      <c r="I4" s="38">
+        <v>25.8</v>
+      </c>
+      <c r="J4" s="38">
+        <v>50.3</v>
+      </c>
+      <c r="K4" s="38">
+        <v>19.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="38">
+        <v>33.805959999999999</v>
+      </c>
+      <c r="I5" s="38">
+        <v>36.538490000000003</v>
+      </c>
+      <c r="J5" s="38">
+        <v>31.8384</v>
+      </c>
+      <c r="K5" s="38">
+        <v>26.274539999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H6" s="38">
+        <v>5.6862750000000002</v>
+      </c>
+      <c r="I6" s="38">
+        <v>5.6</v>
+      </c>
+      <c r="J6" s="38">
+        <v>15.8</v>
+      </c>
+      <c r="K6" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H7" s="38">
+        <v>17.578954</v>
+      </c>
+      <c r="I7" s="38">
+        <v>18.969363000000001</v>
+      </c>
+      <c r="J7" s="38">
+        <v>25.622057000000002</v>
+      </c>
+      <c r="K7" s="38">
+        <v>8.3299310000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>222</v>
+      </c>
+      <c r="H8" s="38">
+        <v>69.01961</v>
+      </c>
+      <c r="I8" s="38">
+        <v>49.2</v>
+      </c>
+      <c r="J8" s="38">
+        <v>67.3</v>
+      </c>
+      <c r="K8" s="38">
+        <v>66.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H9" s="38">
+        <v>32.32676</v>
+      </c>
+      <c r="I9" s="38">
+        <v>41.641820000000003</v>
+      </c>
+      <c r="J9" s="38">
+        <v>40.294960000000003</v>
+      </c>
+      <c r="K9" s="38">
+        <v>36.370820000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H10" s="38">
+        <v>3.2605879999999998</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.60660000000000003</v>
+      </c>
+      <c r="J10" s="38">
+        <v>1.6204000000000001</v>
+      </c>
+      <c r="K10" s="38">
+        <v>0.29480000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>225</v>
+      </c>
+      <c r="H11" s="38">
+        <v>2.7604662000000002</v>
+      </c>
+      <c r="I11" s="38">
+        <v>1.1928231</v>
+      </c>
+      <c r="J11" s="38">
+        <v>1.4612951000000001</v>
+      </c>
+      <c r="K11" s="38">
+        <v>0.6415168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12">
+        <v>-6.7618510000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.711392</v>
+      </c>
+      <c r="D12">
+        <v>-3.9510000000000001</v>
+      </c>
+      <c r="E12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="38">
+        <v>37.358429999999998</v>
+      </c>
+      <c r="I12" s="38">
+        <v>9.4215999999999998</v>
+      </c>
+      <c r="J12" s="38">
+        <v>28.485600000000002</v>
+      </c>
+      <c r="K12" s="38">
+        <v>9.1435999999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>6.2771999999999994E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.7852E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.516</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H13" s="38">
+        <v>31.481570000000001</v>
+      </c>
+      <c r="I13" s="38">
+        <v>17.217739999999999</v>
+      </c>
+      <c r="J13" s="38">
+        <v>22.782979999999998</v>
+      </c>
+      <c r="K13" s="38">
+        <v>16.617190000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>-2.1710000000000002E-3</v>
+      </c>
+      <c r="C14">
+        <v>3.663E-3</v>
+      </c>
+      <c r="D14">
+        <v>-0.59299999999999997</v>
+      </c>
+      <c r="E14">
+        <v>0.55350900000000003</v>
+      </c>
+      <c r="G14" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="38">
+        <v>29.803920000000002</v>
+      </c>
+      <c r="I14" s="38">
+        <v>21.9</v>
+      </c>
+      <c r="J14" s="38">
+        <v>33.6</v>
+      </c>
+      <c r="K14" s="38">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15">
+        <v>1.4817E-2</v>
+      </c>
+      <c r="C15">
+        <v>1.5893000000000001E-2</v>
+      </c>
+      <c r="D15">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E15">
+        <v>0.35120600000000002</v>
+      </c>
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="38">
+        <v>31.400010000000002</v>
+      </c>
+      <c r="I15" s="38">
+        <v>25.909770000000002</v>
+      </c>
+      <c r="J15" s="38">
+        <v>30.690020000000001</v>
+      </c>
+      <c r="K15" s="38">
+        <v>31.687249999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>-0.241811</v>
+      </c>
+      <c r="C16">
+        <v>0.207373</v>
+      </c>
+      <c r="D16">
+        <v>-1.1659999999999999</v>
+      </c>
+      <c r="E16">
+        <v>0.243587</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="B17">
+        <v>1.1949129999999999</v>
+      </c>
+      <c r="C17">
+        <v>1.426785</v>
+      </c>
+      <c r="D17">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="E17">
+        <v>0.40231899999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B18">
+        <v>0.56193599999999999</v>
+      </c>
+      <c r="C18">
+        <v>0.885633</v>
+      </c>
+      <c r="D18">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0.52575400000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>6.2771999999999994E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.7852E-2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13">
-        <v>-6.7618510000000001</v>
-      </c>
-      <c r="C13">
-        <v>1.711392</v>
-      </c>
-      <c r="D13">
-        <v>-3.9510000000000001</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14">
-        <v>6.2771999999999994E-2</v>
-      </c>
-      <c r="C14">
-        <v>1.7852E-2</v>
-      </c>
-      <c r="D14">
-        <v>3.516</v>
-      </c>
-      <c r="E14" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B15">
+      <c r="B23">
         <v>-2.1710000000000002E-3</v>
       </c>
-      <c r="C15">
+      <c r="C23">
         <v>3.663E-3</v>
       </c>
-      <c r="D15">
-        <v>-0.59299999999999997</v>
-      </c>
-      <c r="E15">
+      <c r="D23">
         <v>0.55350900000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24">
         <v>1.4817E-2</v>
       </c>
-      <c r="C16">
+      <c r="C24">
         <v>1.5893000000000001E-2</v>
       </c>
-      <c r="D16">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="E16">
+      <c r="D24">
         <v>0.35120600000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25">
         <v>-0.241811</v>
       </c>
-      <c r="C17">
+      <c r="C25">
         <v>0.207373</v>
       </c>
-      <c r="D17">
-        <v>-1.1659999999999999</v>
-      </c>
-      <c r="E17">
+      <c r="D25">
         <v>0.243587</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
         <v>1.1949129999999999</v>
       </c>
-      <c r="C18">
+      <c r="C26">
         <v>1.426785</v>
       </c>
-      <c r="D18">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="E18">
+      <c r="D26">
         <v>0.40231899999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
         <v>0.56193599999999999</v>
       </c>
-      <c r="C19">
+      <c r="C27">
         <v>0.885633</v>
       </c>
-      <c r="D19">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="E19">
-        <v>0.52575400000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23">
-        <v>6.2771999999999994E-2</v>
-      </c>
-      <c r="C23">
-        <v>1.7852E-2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24">
-        <v>-2.1710000000000002E-3</v>
-      </c>
-      <c r="C24">
-        <v>3.663E-3</v>
-      </c>
-      <c r="D24">
-        <v>0.55350900000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25">
-        <v>1.4817E-2</v>
-      </c>
-      <c r="C25">
-        <v>1.5893000000000001E-2</v>
-      </c>
-      <c r="D25">
-        <v>0.35120600000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26">
-        <v>-0.241811</v>
-      </c>
-      <c r="C26">
-        <v>0.207373</v>
-      </c>
-      <c r="D26">
-        <v>0.243587</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27">
-        <v>1.1949129999999999</v>
-      </c>
-      <c r="C27">
-        <v>1.426785</v>
-      </c>
       <c r="D27">
-        <v>0.40231899999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28">
-        <v>0.56193599999999999</v>
-      </c>
-      <c r="C28">
-        <v>0.885633</v>
-      </c>
-      <c r="D28">
         <v>0.52575400000000005</v>
       </c>
     </row>
@@ -2712,6 +3023,74 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L33"/>
   <sheetViews>
@@ -2731,30 +3110,30 @@
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="16"/>
       <c r="C2" s="9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C3" s="21">
         <v>1</v>
@@ -2766,15 +3145,15 @@
         <v>15.628</v>
       </c>
       <c r="F3" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C4" s="21">
         <v>1</v>
@@ -2789,12 +3168,12 @@
         <v>0.92800000000000005</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -2806,15 +3185,15 @@
         <v>8.9769000000000005</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C6" s="21">
         <v>146</v>
@@ -2825,35 +3204,35 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="H6" s="7" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H7" s="7" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2865,13 +3244,13 @@
         <v>14.823600000000001</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2886,12 +3265,12 @@
         <v>0.92700000000000005</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>147</v>
@@ -2900,82 +3279,82 @@
         <v>45.524000000000001</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H12" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H13" s="7" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="7" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="7" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="H16" s="7"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="7" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H17" s="23" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H21" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
@@ -2983,27 +3362,27 @@
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H23" s="24" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H24" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H25" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H26" s="7" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H27" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -3011,32 +3390,32 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H29" s="24" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H30" s="7" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H31" s="17"/>
       <c r="I31" s="21" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="H32" s="17" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="I32" s="21">
         <v>1</v>
@@ -3048,12 +3427,12 @@
         <v>3.2246999999999999</v>
       </c>
       <c r="L32" s="21" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.3">
       <c r="H33" s="17" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I33" s="21">
         <v>148</v>
@@ -3071,6 +3450,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2">
+        <v>6.8</v>
+      </c>
+      <c r="D2">
+        <v>7.2</v>
+      </c>
+      <c r="E2">
+        <v>7.7</v>
+      </c>
+      <c r="F2">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4">
+        <v>13.5</v>
+      </c>
+      <c r="D4">
+        <v>10.8</v>
+      </c>
+      <c r="E4">
+        <v>5.7</v>
+      </c>
+      <c r="F4">
+        <v>11.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
@@ -3090,7 +3562,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -3100,21 +3572,21 @@
     <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B3" s="32">
         <v>30.715102000000002</v>
@@ -3126,7 +3598,7 @@
         <v>4.1970000000000001</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
@@ -3134,7 +3606,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B4" s="32">
         <v>-2.4189289999999999</v>
@@ -3146,12 +3618,12 @@
         <v>-4.5670000000000002</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B5" s="32">
         <v>-0.22372500000000001</v>
@@ -3163,12 +3635,12 @@
         <v>-2.5550000000000002</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="B6" s="32">
         <v>4.5490000000000001E-3</v>
@@ -3180,12 +3652,12 @@
         <v>8.85</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -3194,7 +3666,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="37" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
@@ -3202,34 +3674,34 @@
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="29" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F9" s="28"/>
       <c r="G9" s="29" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="J9" s="31" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B10" s="28">
         <v>33.120052999999999</v>
@@ -3241,11 +3713,11 @@
         <v>3.871</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F10" s="28"/>
       <c r="G10" s="28" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="H10" s="28">
         <v>24.7</v>
@@ -3259,7 +3731,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B11" s="28">
         <v>0.41254000000000002</v>
@@ -3271,11 +3743,11 @@
         <v>6.5810000000000004</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F11" s="28"/>
       <c r="G11" s="28" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="H11" s="28">
         <v>24.5</v>
@@ -3289,7 +3761,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B12" s="28">
         <v>8.005E-3</v>
@@ -3305,7 +3777,7 @@
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="28" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="H12" s="28">
         <v>24.4</v>
@@ -3319,7 +3791,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B13" s="28">
         <v>0.20180300000000001</v>
@@ -3335,7 +3807,7 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="H13" s="28">
         <v>24.4</v>
@@ -3349,7 +3821,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B14" s="28">
         <v>-8.5365999999999997E-2</v>
@@ -3365,7 +3837,7 @@
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="28" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H14" s="28">
         <v>24.4</v>
@@ -3379,7 +3851,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B15" s="28">
         <v>0.154978</v>
@@ -3395,7 +3867,7 @@
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H15" s="28">
         <v>24.4</v>
@@ -3409,7 +3881,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B16" s="28">
         <v>-0.168348</v>
@@ -3421,11 +3893,11 @@
         <v>-1.821</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F16" s="28"/>
       <c r="G16" s="28" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="H16" s="28">
         <v>21.8</v>
@@ -3439,7 +3911,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B17" s="28">
         <v>-2.2300499999999999</v>
@@ -3451,11 +3923,11 @@
         <v>-3.052</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="H17" s="28">
         <v>21.6</v>
@@ -3469,7 +3941,7 @@
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B18" s="28">
         <v>-0.36151800000000001</v>
@@ -3485,7 +3957,7 @@
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="28" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="H18" s="28">
         <v>21.3</v>
@@ -3505,7 +3977,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="28" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="H19" s="28">
         <v>21.9</v>
@@ -3519,7 +3991,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28"/>
@@ -3527,7 +3999,7 @@
       <c r="E20" s="28"/>
       <c r="F20" s="28"/>
       <c r="G20" s="28" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="H20" s="28">
         <v>21.4</v>
@@ -3541,7 +4013,7 @@
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
@@ -3551,17 +4023,17 @@
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
       <c r="E22" s="28"/>
       <c r="F22" s="28" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="H22" s="28">
         <v>20.82</v>
@@ -3580,10 +4052,10 @@
       <c r="D23" s="28"/>
       <c r="E23" s="28"/>
       <c r="F23" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="H23" s="28">
         <v>20.440000000000001</v>
@@ -3598,10 +4070,10 @@
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="F24" s="35" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="H24" s="35">
         <v>20.56</v>
@@ -3620,13 +4092,13 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="G25" s="7" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="28" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="C26" s="34">
         <v>-0.78</v>
@@ -3636,25 +4108,25 @@
     <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="28" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="C27" s="34">
         <v>0.44800000000000001</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="28" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C28" s="34">
         <v>-0.16</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
@@ -3665,12 +4137,12 @@
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
@@ -3678,59 +4150,59 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G35" s="7" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G37" s="7" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G38" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G39" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -3738,17 +4210,17 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G41" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G42" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G43" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3761,7 +4233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H7"/>
   <sheetViews>
@@ -3780,21 +4252,21 @@
     <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="6"/>
       <c r="C1" s="6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4">
         <v>0.06</v>
@@ -3811,7 +4283,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4">
         <v>0.05</v>
@@ -3828,7 +4300,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4">
         <v>0.87</v>
@@ -3845,7 +4317,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
         <v>1.1499999999999999</v>
@@ -3902,7 +4374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
@@ -3921,21 +4393,21 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7">
         <v>22.26765</v>
@@ -3944,7 +4416,7 @@
         <v>21.172409999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="G3" s="7">
         <v>21.17343</v>
@@ -3955,7 +4427,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C4" s="7">
         <v>11.03529</v>
@@ -3973,7 +4445,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="C5">
         <v>95.6</v>
@@ -3982,7 +4454,7 @@
         <v>59.3</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -3996,7 +4468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -4008,7 +4480,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="G1" s="18"/>
     </row>
@@ -4017,17 +4489,17 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -4035,67 +4507,67 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
@@ -4103,17 +4575,17 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4122,7 +4594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I19"/>
   <sheetViews>
@@ -4142,24 +4614,24 @@
   <sheetData>
     <row r="1" spans="2:9" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C3" s="14">
         <v>0.64524400000000004</v>
@@ -4173,7 +4645,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C4" s="15">
         <v>0.50651570000000001</v>
@@ -4187,7 +4659,7 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C5" s="15">
         <v>0.57192829999999995</v>
@@ -4201,31 +4673,31 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="12" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C9" s="13">
         <v>-0.41552319999999998</v>
@@ -4245,7 +4717,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C10" s="13">
         <v>-0.56518710000000005</v>
@@ -4265,7 +4737,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="11" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C11" s="13">
         <v>-0.42727480000000001</v>
@@ -4285,7 +4757,7 @@
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C12" s="13">
         <v>-0.51087680000000002</v>
@@ -4305,7 +4777,7 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="11" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C13" s="13">
         <v>-0.25366349999999999</v>
@@ -4331,21 +4803,21 @@
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="16"/>
       <c r="C15" s="12" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C16" s="21">
         <v>-0.38200000000000001</v>
@@ -4362,7 +4834,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C17" s="21">
         <v>-0.61</v>
@@ -4379,7 +4851,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C18" s="21">
         <v>-0.443</v>
@@ -4396,7 +4868,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="11" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C19" s="21">
         <v>-0.53500000000000003</v>
@@ -4417,7 +4889,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -4433,13 +4905,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -4453,12 +4925,12 @@
         <v>2.89</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2">
         <v>4.1708189999999998</v>
@@ -4467,12 +4939,12 @@
         <v>2.44</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2">
         <v>1.2071000000000001</v>
@@ -4482,22 +4954,22 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4514,7 +4986,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
         <v>0.28485022999999998</v>
@@ -4523,12 +4995,12 @@
         <v>0.22783210000000001</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2">
         <v>9.1434959999999996E-2</v>
@@ -4537,17 +5009,17 @@
         <v>0.1661744</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C11" s="26">
         <v>25</v>
@@ -4555,7 +5027,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" s="7" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4563,17 +5035,17 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" s="7" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
@@ -4581,22 +5053,22 @@
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F18" s="7" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="7" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="7" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="7" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
@@ -4604,17 +5076,17 @@
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="7" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4622,7 +5094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
@@ -4637,27 +5109,27 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D2">
         <f>AVERAGE(B2:B5)</f>
@@ -4670,7 +5142,7 @@
         <v>0.65</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4679,7 +5151,7 @@
         <v>0.44999999999999996</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4687,7 +5159,7 @@
         <v>0.5</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4695,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D6">
         <f>AVERAGE(B6:B8)</f>
@@ -4707,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4716,26 +5188,26 @@
         <v>1.75</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <f>0.3/32</f>
         <v>9.3749999999999997E-3</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F9">
         <f>0.3/23.7</f>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4744,7 +5216,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D10">
         <f>AVERAGE(B9:B13)</f>
@@ -4755,7 +5227,7 @@
         <v>2.0408163265306124E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4764,14 +5236,14 @@
         <v>1.7045454545454544E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <f>0.3/26.5</f>
         <v>1.1320754716981131E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="H11">
         <f>AVERAGE(F9:F11)</f>
@@ -4784,14 +5256,14 @@
         <v>4.6874999999999998E-3</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F12">
         <f>1.5/50.8</f>
         <v>2.9527559055118113E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -4800,14 +5272,14 @@
         <v>2.8409090909090912E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <f>1/46</f>
         <v>2.1739130434782608E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="H13">
         <f>AVERAGE(F12:F13)</f>
@@ -4820,7 +5292,7 @@
         <v>3.6</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <f>AVERAGE(B14:B16)</f>
@@ -4831,7 +5303,7 @@
         <v>4.2553191489361701E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -4840,14 +5312,14 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F15">
         <f>3/22.5</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4856,14 +5328,14 @@
         <v>3.3163265306122451E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F16">
         <f>2/40</f>
         <v>0.05</v>
       </c>
       <c r="G16" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
@@ -4872,14 +5344,14 @@
         <v>0.18260869565217391</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <f>4/20.4</f>
         <v>0.19607843137254904</v>
       </c>
       <c r="G17" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -4888,14 +5360,14 @@
         <v>0.1276595744680851</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F18">
         <f>2.5/43.4</f>
         <v>5.7603686635944701E-2</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -4904,14 +5376,14 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F19">
         <f>1/10</f>
         <v>0.1</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -4920,14 +5392,14 @@
         <v>9.9403578528827044E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F20">
         <f>2/9.5</f>
         <v>0.21052631578947367</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
@@ -4936,14 +5408,14 @@
         <v>6.0240963855421679E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F21">
         <f>1/60</f>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="H21">
         <f>AVERAGE(F14:F21)</f>
@@ -4956,7 +5428,7 @@
         <v>0.15094339622641509</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
         <v>1</v>
@@ -4968,7 +5440,7 @@
         <v>0.16260162601626016</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D23">
         <f>AVERAGE(B17:B23)</f>
@@ -4981,72 +5453,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data sheets/Summary Stats.jblm.xlsx
+++ b/data sheets/Summary Stats.jblm.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fire effects" sheetId="1" r:id="rId1"/>
     <sheet name="fofem comp" sheetId="12" r:id="rId2"/>
-    <sheet name="dieback" sheetId="10" r:id="rId3"/>
-    <sheet name="fuel moistures" sheetId="3" r:id="rId4"/>
-    <sheet name="sprouters vs non" sheetId="6" r:id="rId5"/>
-    <sheet name="cvs=100" sheetId="11" r:id="rId6"/>
+    <sheet name="dieback mods" sheetId="10" r:id="rId3"/>
+    <sheet name="day of burn" sheetId="13" r:id="rId4"/>
+    <sheet name="fuel moistures" sheetId="3" r:id="rId5"/>
+    <sheet name="sprouters vs non" sheetId="6" r:id="rId6"/>
     <sheet name="pca loadings" sheetId="2" r:id="rId7"/>
     <sheet name="duff" sheetId="4" r:id="rId8"/>
     <sheet name="ROS" sheetId="7" r:id="rId9"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="230">
   <si>
     <t>HLD01</t>
   </si>
@@ -403,24 +403,6 @@
   </si>
   <si>
     <t>Coefficients:</t>
-  </si>
-  <si>
-    <t>t value</t>
-  </si>
-  <si>
-    <t>4.67e-05 ***</t>
-  </si>
-  <si>
-    <t>1.04e-05 ***</t>
-  </si>
-  <si>
-    <t>0.0116 *</t>
-  </si>
-  <si>
-    <t>2.56e-15 ***</t>
-  </si>
-  <si>
-    <t>lm(formula = dieback ~ ht + sprout.vol + I(CVS^2))</t>
   </si>
   <si>
     <t>lm(formula = dieback ~ duff.per.cons)</t>
@@ -486,90 +468,6 @@
     </r>
   </si>
   <si>
-    <t>lm(formula = crown.dieback ~ ., data = sc100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Min      1Q  Median      3Q     Max </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-49.468 -18.673   2.412  15.880  56.177 </t>
-  </si>
-  <si>
-    <t>Coefficients: (1 not defined because of singularities)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                     Estimate Std. Error t value Pr(&gt;|t|)    </t>
-  </si>
-  <si>
-    <t>(Intercept)          94.89188   11.51801   8.239 4.66e-11 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scorch                     NA         NA      NA       NA    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bole.char.ht         -0.01095    0.06603  -0.166   0.8689    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bole.ch.circ.at.DBH   0.21595    0.25891   0.834   0.4080    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bole.ch.circ.at.base -0.07477    0.13057  -0.573   0.5693    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">per.duff.cons         0.26396    0.17400   1.517   0.1352    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">post.fire.sprouting  -0.26156    0.14467  -1.808   0.0763 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">height               -3.42087    1.95003  -1.754   0.0852 .  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DBH                  -0.58834    0.73538  -0.800   0.4273    </t>
-  </si>
-  <si>
-    <t>---</t>
-  </si>
-  <si>
-    <t>Signif. codes:  0 ‘***’ 0.001 ‘**’ 0.01 ‘*’ 0.05 ‘.’ 0.1 ‘ ’ 1</t>
-  </si>
-  <si>
-    <t>Residual standard error: 26.53 on 53 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple R-squared:  0.3974,    Adjusted R-squared:  0.3178 </t>
-  </si>
-  <si>
-    <t>F-statistic: 4.993 on 7 and 53 DF,  p-value: 0.0002163</t>
-  </si>
-  <si>
-    <t>lm(formula = crown.dieback ~ ., data = oaks)</t>
-  </si>
-  <si>
-    <t>Residual standard error: 21.98 on 142 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple R-squared:  0.5306,    Adjusted R-squared:  0.5042 </t>
-  </si>
-  <si>
-    <t>F-statistic: 20.06 on 8 and 142 DF,  p-value: &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t>0.000164 ***</t>
-  </si>
-  <si>
-    <t>8.38e-10 ***</t>
-  </si>
-  <si>
-    <t>0.070782 .</t>
-  </si>
-  <si>
-    <t>0.002711 **</t>
-  </si>
-  <si>
-    <t>PCVS</t>
-  </si>
-  <si>
     <t>Evaluation criteria</t>
   </si>
   <si>
@@ -579,42 +477,195 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>AIC</t>
-  </si>
-  <si>
-    <t>PCVS+Bole char ht</t>
-  </si>
-  <si>
-    <t>PCVS+Bole char ht+DBHCC</t>
-  </si>
-  <si>
-    <t>PCVS+Bole char ht+DBHCC+BCC</t>
-  </si>
-  <si>
-    <t>PCVS+Bole char ht+DBHCC+BCC+Duff cons (%)</t>
-  </si>
-  <si>
-    <t>PCVS+Bole char ht+DBHCC+BCC+Duff cons (%)+Height</t>
-  </si>
-  <si>
-    <t>PCVS+Bole char ht+DBHCC+BCC+Duff cons (%)+Height+DBH</t>
-  </si>
-  <si>
-    <t>PCVS+Bole char ht+DBHCC+BCC+Duff cons (%)+Height+DBH+PCVSP</t>
-  </si>
-  <si>
     <t>R²</t>
   </si>
   <si>
-    <t>PCVS+Height+PCVSP</t>
-  </si>
-  <si>
-    <t>PCVS²+Height+PCVSP (final model)</t>
-  </si>
-  <si>
-    <r>
-      <t>PCVS</t>
-    </r>
+    <t xml:space="preserve">       Estimate Std. Error t value Pr(&gt;|t|)    </t>
+  </si>
+  <si>
+    <t>(Intercept) 30.48519    8.08560   3.770 0.000236 ***</t>
+  </si>
+  <si>
+    <t>CVS          0.45476    0.05923   7.678 2.08e-12 ***</t>
+  </si>
+  <si>
+    <t>ht          -0.78455    0.14935  -5.253 5.16e-07 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sprout.vol  -0.16333    0.09001  -1.815 0.071610 .  </t>
+  </si>
+  <si>
+    <t>Post-fire sprouting</t>
+  </si>
+  <si>
+    <t>Tree height</t>
+  </si>
+  <si>
+    <t>Crown scorch</t>
+  </si>
+  <si>
+    <t>HLD 02</t>
+  </si>
+  <si>
+    <t>HLD02</t>
+  </si>
+  <si>
+    <t>bch.m</t>
+  </si>
+  <si>
+    <t>bch.sd</t>
+  </si>
+  <si>
+    <t>bcc.m</t>
+  </si>
+  <si>
+    <t>bcc.sd</t>
+  </si>
+  <si>
+    <t>dbhcc.m</t>
+  </si>
+  <si>
+    <t>dbhcc.sd</t>
+  </si>
+  <si>
+    <t>pcvs.m</t>
+  </si>
+  <si>
+    <t>pcvs.sd</t>
+  </si>
+  <si>
+    <t>duff.cm.m</t>
+  </si>
+  <si>
+    <t>duff.cm.sd</t>
+  </si>
+  <si>
+    <t>duff.per.m</t>
+  </si>
+  <si>
+    <t>duff.per.sd</t>
+  </si>
+  <si>
+    <t>dieback.m</t>
+  </si>
+  <si>
+    <t>dieback.sd</t>
+  </si>
+  <si>
+    <t>54.7 (48.8)</t>
+  </si>
+  <si>
+    <t>38.1 (74.4)</t>
+  </si>
+  <si>
+    <t>91.6 (108.8)</t>
+  </si>
+  <si>
+    <t>28.8 (37.6)</t>
+  </si>
+  <si>
+    <t>15.8 (25.6)</t>
+  </si>
+  <si>
+    <t>25.8 (36.5)</t>
+  </si>
+  <si>
+    <t>50.3 (31.8)</t>
+  </si>
+  <si>
+    <t>19.7 (26.2)</t>
+  </si>
+  <si>
+    <t>69 (32.3)</t>
+  </si>
+  <si>
+    <t>49.2 (41.6)</t>
+  </si>
+  <si>
+    <t>66.1 (36.4)</t>
+  </si>
+  <si>
+    <t>3.3 (2.8)</t>
+  </si>
+  <si>
+    <t>1.6 (1.5)</t>
+  </si>
+  <si>
+    <t>0.3 (0.6)</t>
+  </si>
+  <si>
+    <t>0.6 (1.2)</t>
+  </si>
+  <si>
+    <t>5.7 (17.6)</t>
+  </si>
+  <si>
+    <t>5.6 (19)</t>
+  </si>
+  <si>
+    <t>2 (8.33)</t>
+  </si>
+  <si>
+    <t>37.4 (31.5)</t>
+  </si>
+  <si>
+    <t>9.4 (17.2)</t>
+  </si>
+  <si>
+    <t>28.5 (22.8)</t>
+  </si>
+  <si>
+    <t>9.1 (16.6)</t>
+  </si>
+  <si>
+    <t>21.9 (25.9)</t>
+  </si>
+  <si>
+    <t>Crown scorch (%)</t>
+  </si>
+  <si>
+    <t>Fall sprouting (%)</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>9.2 (21.7)</t>
+  </si>
+  <si>
+    <t>11.3 (22.8)</t>
+  </si>
+  <si>
+    <t>10 (23.7)</t>
+  </si>
+  <si>
+    <t>Percent mortality</t>
+  </si>
+  <si>
+    <t>Dbh killed trees</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>FOFEM output</t>
+  </si>
+  <si>
+    <t>PCVS+Bole char ht+DBHCC+BCC+Duff cons (%)+PCVSP+tree size</t>
+  </si>
+  <si>
+    <t>PCVS+DBHCC+BCC+Duff cons (%)+PCVSP+tree size</t>
+  </si>
+  <si>
+    <t>PCVS+DBHCC+Duff cons (%)+PCVSP+tree size</t>
+  </si>
+  <si>
+    <t>PCVS+DBHCC+PCVSP+tree size</t>
+  </si>
+  <si>
+    <t>PCVS+DBHCC+tree size+PCVS*tree size</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -622,230 +673,206 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>²</t>
+      <t xml:space="preserve">Δ </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">       Estimate Std. Error t value Pr(&gt;|t|)    </t>
-  </si>
-  <si>
-    <t>(Intercept) 30.48519    8.08560   3.770 0.000236 ***</t>
-  </si>
-  <si>
-    <t>CVS          0.45476    0.05923   7.678 2.08e-12 ***</t>
-  </si>
-  <si>
-    <t>ht          -0.78455    0.14935  -5.253 5.16e-07 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprout.vol  -0.16333    0.09001  -1.815 0.071610 .  </t>
-  </si>
-  <si>
-    <t>Post-fire sprouting</t>
-  </si>
-  <si>
-    <t>Tree height</t>
-  </si>
-  <si>
-    <t>Crown scorch</t>
-  </si>
-  <si>
-    <t>CVS + HT + DBH + Sprout +CVS2</t>
-  </si>
-  <si>
-    <t>CVS + HT + Sprout +CVS2</t>
-  </si>
-  <si>
-    <t>CVS + DBH + Sprout +CVS2</t>
-  </si>
-  <si>
-    <t>mod2</t>
-  </si>
-  <si>
-    <t>mod3</t>
-  </si>
-  <si>
-    <t>mod4</t>
-  </si>
-  <si>
-    <t>lm(formula = dieback ~ ht + sprout.vol + I(CVS^2) + CVS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-48.02 -13.00   0.21  11.21  56.64 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Estimate Std. Error t value Pr(&gt;|t|)    </t>
-  </si>
-  <si>
-    <t>(Intercept) 37.328442   7.779394   4.798 3.91e-06 ***</t>
-  </si>
-  <si>
-    <t>ht          -0.618491   0.145761  -4.243 3.90e-05 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sprout.vol  -0.243409   0.086779  -2.805  0.00572 ** </t>
-  </si>
-  <si>
-    <t>I(CVS^2)     0.009119   0.002071   4.404 2.04e-05 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVS         -0.519316   0.228102  -2.277  0.02426 *  </t>
-  </si>
-  <si>
-    <t>Residual standard error: 20.91 on 146 degrees of freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple R-squared:  0.5631,    Adjusted R-squared:  0.5511 </t>
-  </si>
-  <si>
-    <t>F-statistic: 47.04 on 4 and 146 DF,  p-value: &lt; 2.2e-16</t>
-  </si>
-  <si>
-    <t>HLD 02</t>
-  </si>
-  <si>
-    <t>HLD02</t>
-  </si>
-  <si>
-    <t>bch.m</t>
-  </si>
-  <si>
-    <t>bch.sd</t>
-  </si>
-  <si>
-    <t>bcc.m</t>
-  </si>
-  <si>
-    <t>bcc.sd</t>
-  </si>
-  <si>
-    <t>dbhcc.m</t>
-  </si>
-  <si>
-    <t>dbhcc.sd</t>
-  </si>
-  <si>
-    <t>pcvs.m</t>
-  </si>
-  <si>
-    <t>pcvs.sd</t>
-  </si>
-  <si>
-    <t>duff.cm.m</t>
-  </si>
-  <si>
-    <t>duff.cm.sd</t>
-  </si>
-  <si>
-    <t>duff.per.m</t>
-  </si>
-  <si>
-    <t>duff.per.sd</t>
-  </si>
-  <si>
-    <t>dieback.m</t>
-  </si>
-  <si>
-    <t>dieback.sd</t>
-  </si>
-  <si>
-    <t>54.7 (48.8)</t>
-  </si>
-  <si>
-    <t>38.1 (74.4)</t>
-  </si>
-  <si>
-    <t>91.6 (108.8)</t>
-  </si>
-  <si>
-    <t>28.8 (37.6)</t>
-  </si>
-  <si>
-    <t>15.8 (25.6)</t>
-  </si>
-  <si>
-    <t>25.8 (36.5)</t>
-  </si>
-  <si>
-    <t>50.3 (31.8)</t>
-  </si>
-  <si>
-    <t>19.7 (26.2)</t>
-  </si>
-  <si>
-    <t>69 (32.3)</t>
-  </si>
-  <si>
-    <t>49.2 (41.6)</t>
-  </si>
-  <si>
-    <t>66.1 (36.4)</t>
-  </si>
-  <si>
-    <t>3.3 (2.8)</t>
-  </si>
-  <si>
-    <t>1.6 (1.5)</t>
-  </si>
-  <si>
-    <t>0.3 (0.6)</t>
-  </si>
-  <si>
-    <t>0.6 (1.2)</t>
-  </si>
-  <si>
-    <t>5.7 (17.6)</t>
-  </si>
-  <si>
-    <t>5.6 (19)</t>
-  </si>
-  <si>
-    <t>2 (8.33)</t>
-  </si>
-  <si>
-    <t>37.4 (31.5)</t>
-  </si>
-  <si>
-    <t>9.4 (17.2)</t>
-  </si>
-  <si>
-    <t>28.5 (22.8)</t>
-  </si>
-  <si>
-    <t>9.1 (16.6)</t>
-  </si>
-  <si>
-    <t>21.9 (25.9)</t>
-  </si>
-  <si>
-    <t>Crown scorch (%)</t>
-  </si>
-  <si>
-    <t>Fall sprouting (%)</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>9.2 (21.7)</t>
-  </si>
-  <si>
-    <t>11.3 (22.8)</t>
-  </si>
-  <si>
-    <t>10 (23.7)</t>
-  </si>
-  <si>
-    <t>Percent mortality</t>
-  </si>
-  <si>
-    <t>Dbh killed trees</t>
-  </si>
-  <si>
-    <t>Fofem</t>
-  </si>
-  <si>
-    <t>Measured</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>AIC</t>
+    </r>
+  </si>
+  <si>
+    <t>PCVS+DBHCC+tree size</t>
+  </si>
+  <si>
+    <t>Burn date</t>
+  </si>
+  <si>
+    <t>Ignition time</t>
+  </si>
+  <si>
+    <r>
+      <t>Temperature  (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>˚C)</t>
+    </r>
+  </si>
+  <si>
+    <t>Rh  (%)</t>
+  </si>
+  <si>
+    <r>
+      <t>Rate of spread (m sec</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Backing fire flame length (m)</t>
+  </si>
+  <si>
+    <t>Head fire flame length (m)</t>
+  </si>
+  <si>
+    <t>18-28</t>
+  </si>
+  <si>
+    <r>
+      <t>Average wind speed  (km hr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>56-42</t>
+  </si>
+  <si>
+    <t>0.02-.13</t>
+  </si>
+  <si>
+    <t>23-28</t>
+  </si>
+  <si>
+    <t>54-36</t>
+  </si>
+  <si>
+    <t>.01-.1</t>
+  </si>
+  <si>
+    <t>24-27</t>
+  </si>
+  <si>
+    <t>48-32</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>Rh  (%)*</t>
+  </si>
+  <si>
+    <t>Temperature  (˚C)*</t>
+  </si>
+  <si>
+    <r>
+      <t>Average wind speed  (km hr</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Backing fire rate of spread (m sec</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Head fire rate of spread (m sec</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -854,9 +881,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,22 +980,42 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -985,12 +1032,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1051,24 +1166,68 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1194,7 +1353,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="ctr"/>
+            <c:dLblPos val="inEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1232,7 +1391,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>dieback!$B$26:$B$28</c:f>
+              <c:f>'dieback mods'!$B$15:$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1249,7 +1408,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>dieback!$C$26:$C$28</c:f>
+              <c:f>'dieback mods'!$C$15:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1974,13 +2133,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>271461</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1998,126 +2157,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>942974</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590549</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Down Arrow 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="942974" y="7143750"/>
-          <a:ext cx="3609975" cy="2333625"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4CD45C"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Down Arrow 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="200024" y="7258049"/>
-          <a:ext cx="2981325" cy="2590800"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFCC00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2408,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>12</v>
@@ -2423,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="I1" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="J1" t="s">
         <v>12</v>
@@ -2437,30 +2476,30 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>230</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>231</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H2" s="38">
+        <v>154</v>
+      </c>
+      <c r="H2" s="34">
         <v>54.729410000000001</v>
       </c>
-      <c r="I2" s="38">
+      <c r="I2" s="34">
         <v>38.06</v>
       </c>
-      <c r="J2" s="38">
+      <c r="J2" s="34">
         <v>91.585999999999999</v>
       </c>
-      <c r="K2" s="38">
+      <c r="K2" s="34">
         <v>28.841999999999999</v>
       </c>
     </row>
@@ -2472,27 +2511,27 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H3" s="38">
+        <v>155</v>
+      </c>
+      <c r="H3" s="34">
         <v>48.821109999999997</v>
       </c>
-      <c r="I3" s="38">
+      <c r="I3" s="34">
         <v>74.384110000000007</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="34">
         <v>108.75046</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="34">
         <v>37.570979999999999</v>
       </c>
     </row>
@@ -2501,62 +2540,62 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>246</v>
+        <v>184</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>247</v>
+        <v>185</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="38">
+        <v>156</v>
+      </c>
+      <c r="H4" s="34">
         <v>70.607839999999996</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="34">
         <v>25.8</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="34">
         <v>50.3</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="34">
         <v>19.66</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>191</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>238</v>
+        <v>176</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>239</v>
+        <v>177</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>240</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H5" s="38">
+        <v>157</v>
+      </c>
+      <c r="H5" s="34">
         <v>33.805959999999999</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="34">
         <v>36.538490000000003</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="34">
         <v>31.8384</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="34">
         <v>26.274539999999998</v>
       </c>
     </row>
@@ -2565,30 +2604,30 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>241</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>242</v>
+        <v>180</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>243</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" s="38">
+        <v>158</v>
+      </c>
+      <c r="H6" s="34">
         <v>5.6862750000000002</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="34">
         <v>5.6</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="34">
         <v>15.8</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="34">
         <v>2</v>
       </c>
     </row>
@@ -2597,30 +2636,30 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H7" s="38">
+        <v>159</v>
+      </c>
+      <c r="H7" s="34">
         <v>17.578954</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="34">
         <v>18.969363000000001</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="34">
         <v>25.622057000000002</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="34">
         <v>8.3299310000000002</v>
       </c>
     </row>
@@ -2632,7 +2671,7 @@
         <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>190</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>115</v>
@@ -2641,50 +2680,50 @@
         <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
-      </c>
-      <c r="H8" s="38">
+        <v>160</v>
+      </c>
+      <c r="H8" s="34">
         <v>69.01961</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="34">
         <v>49.2</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="34">
         <v>67.3</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="34">
         <v>66.02</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>254</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C9" s="39" t="s">
-        <v>255</v>
+        <v>194</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>258</v>
+        <v>196</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H9" s="38">
+        <v>161</v>
+      </c>
+      <c r="H9" s="34">
         <v>32.32676</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="34">
         <v>41.641820000000003</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="34">
         <v>40.294960000000003</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="34">
         <v>36.370820000000002</v>
       </c>
     </row>
@@ -2693,18 +2732,18 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H10" s="38">
+        <v>162</v>
+      </c>
+      <c r="H10" s="34">
         <v>3.2605879999999998</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="34">
         <v>0.60660000000000003</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="34">
         <v>1.6204000000000001</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="34">
         <v>0.29480000000000001</v>
       </c>
     </row>
@@ -2723,18 +2762,18 @@
         <v>101</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H11" s="38">
+        <v>163</v>
+      </c>
+      <c r="H11" s="34">
         <v>2.7604662000000002</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="34">
         <v>1.1928231</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="34">
         <v>1.4612951000000001</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="34">
         <v>0.6415168</v>
       </c>
     </row>
@@ -2755,18 +2794,18 @@
         <v>97</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
-      </c>
-      <c r="H12" s="38">
+        <v>164</v>
+      </c>
+      <c r="H12" s="34">
         <v>37.358429999999998</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="34">
         <v>9.4215999999999998</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="34">
         <v>28.485600000000002</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="34">
         <v>9.1435999999999993</v>
       </c>
     </row>
@@ -2787,18 +2826,18 @@
         <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
-      </c>
-      <c r="H13" s="38">
+        <v>165</v>
+      </c>
+      <c r="H13" s="34">
         <v>31.481570000000001</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="34">
         <v>17.217739999999999</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="34">
         <v>22.782979999999998</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="34">
         <v>16.617190000000001</v>
       </c>
     </row>
@@ -2819,18 +2858,18 @@
         <v>0.55350900000000003</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="38">
+        <v>166</v>
+      </c>
+      <c r="H14" s="34">
         <v>29.803920000000002</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="34">
         <v>21.9</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="34">
         <v>33.6</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="34">
         <v>26</v>
       </c>
     </row>
@@ -2851,18 +2890,18 @@
         <v>0.35120600000000002</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H15" s="38">
+        <v>167</v>
+      </c>
+      <c r="H15" s="34">
         <v>31.400010000000002</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="34">
         <v>25.909770000000002</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="34">
         <v>30.690020000000001</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="34">
         <v>31.687249999999999</v>
       </c>
     </row>
@@ -3027,7 +3066,7 @@
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3451,75 +3490,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="4" customWidth="1"/>
+    <col min="9" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="1.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" t="s">
+    <row r="1" spans="1:15" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2">
+      <c r="H1" s="46"/>
+      <c r="I1" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="48"/>
+      <c r="K1" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" s="47"/>
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:15" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="3">
         <v>6.8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>7.2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>7.7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3">
+      <c r="H2" s="46"/>
+      <c r="I2" s="49" t="s">
+        <v>199</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="K2" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="M2" s="45"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="42"/>
+      <c r="B3" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="6">
         <v>67</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>66</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>66</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>262</v>
+      <c r="H3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="53">
+        <v>6.8</v>
+      </c>
+      <c r="J3" s="53">
+        <v>13.5</v>
+      </c>
+      <c r="K3" s="54">
+        <v>10</v>
+      </c>
+      <c r="L3" s="46">
+        <v>67</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>199</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>13.5</v>
@@ -3533,707 +3616,723 @@
       <c r="F4">
         <v>11.6</v>
       </c>
+      <c r="H4" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="53">
+        <v>7.2</v>
+      </c>
+      <c r="J4" s="53">
+        <v>10.8</v>
+      </c>
+      <c r="K4" s="54">
+        <v>4</v>
+      </c>
+      <c r="L4" s="46">
+        <v>66</v>
+      </c>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="43"/>
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="40">
+        <v>10</v>
+      </c>
+      <c r="D5" s="40">
+        <v>4</v>
+      </c>
+      <c r="E5" s="40">
+        <v>4</v>
+      </c>
+      <c r="F5" s="40">
+        <v>10</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="53">
+        <v>7.7</v>
+      </c>
+      <c r="J5" s="53">
+        <v>5.7</v>
+      </c>
+      <c r="K5" s="54">
+        <v>4</v>
+      </c>
+      <c r="L5" s="46">
+        <v>66</v>
+      </c>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="H6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="53">
+        <v>8.5</v>
+      </c>
+      <c r="J6" s="53">
+        <v>11.6</v>
+      </c>
+      <c r="K6" s="54">
+        <v>10</v>
+      </c>
+      <c r="L6" s="46">
+        <v>58</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="3" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="69.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
     <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="6" customWidth="1"/>
     <col min="7" max="7" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>128</v>
-      </c>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="28"/>
       <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
+      <c r="C1" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="28"/>
       <c r="B2" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="32">
-        <v>30.715102000000002</v>
-      </c>
-      <c r="C3" s="32">
-        <v>7.3186799999999996</v>
-      </c>
-      <c r="D3" s="32">
-        <v>4.1970000000000001</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>124</v>
+        <v>141</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="C3" s="28">
+        <v>20.5</v>
+      </c>
+      <c r="D3" s="28">
+        <v>0.54</v>
+      </c>
+      <c r="E3" s="28">
+        <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="32">
-        <v>-2.4189289999999999</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0.52967799999999998</v>
-      </c>
-      <c r="D4" s="32">
-        <v>-4.5670000000000002</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="32">
-        <v>-0.22372500000000001</v>
-      </c>
-      <c r="C5" s="32">
-        <v>8.7568000000000007E-2</v>
-      </c>
-      <c r="D5" s="32">
-        <v>-2.5550000000000002</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="B6" s="32">
-        <v>4.5490000000000001E-3</v>
-      </c>
-      <c r="C6" s="32">
-        <v>5.1400000000000003E-4</v>
-      </c>
-      <c r="D6" s="32">
-        <v>8.85</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="28">
-        <v>33.120052999999999</v>
-      </c>
-      <c r="C10" s="28">
-        <v>8.5548940000000009</v>
-      </c>
-      <c r="D10" s="28">
-        <v>3.871</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="H10" s="28">
-        <v>24.7</v>
-      </c>
-      <c r="I10" s="28">
-        <v>0.36</v>
-      </c>
-      <c r="J10" s="28">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0.41254000000000002</v>
-      </c>
-      <c r="C11" s="28">
-        <v>6.2687000000000007E-2</v>
-      </c>
-      <c r="D11" s="28">
-        <v>6.5810000000000004</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="H11" s="28">
-        <v>24.5</v>
-      </c>
-      <c r="I11" s="28">
-        <v>0.37</v>
-      </c>
-      <c r="J11" s="28">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="28">
-        <v>8.005E-3</v>
-      </c>
-      <c r="C12" s="28">
-        <v>3.5772999999999999E-2</v>
-      </c>
-      <c r="D12" s="28">
-        <v>0.224</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0.823268</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="H12" s="28">
-        <v>24.4</v>
-      </c>
-      <c r="I12" s="28">
-        <v>0.37</v>
-      </c>
-      <c r="J12" s="28">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="28">
-        <v>0.20180300000000001</v>
-      </c>
-      <c r="C13" s="28">
-        <v>0.14708099999999999</v>
-      </c>
-      <c r="D13" s="28">
-        <v>1.3720000000000001</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0.172209</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="H13" s="28">
-        <v>24.4</v>
-      </c>
-      <c r="I13" s="28">
-        <v>0.37</v>
-      </c>
-      <c r="J13" s="28">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="28">
-        <v>-8.5365999999999997E-2</v>
-      </c>
-      <c r="C14" s="28">
-        <v>7.5911000000000006E-2</v>
-      </c>
-      <c r="D14" s="28">
-        <v>-1.125</v>
-      </c>
-      <c r="E14" s="30">
-        <v>0.26267299999999999</v>
-      </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="H14" s="28">
-        <v>24.4</v>
-      </c>
-      <c r="I14" s="28">
-        <v>0.36</v>
-      </c>
-      <c r="J14" s="28">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="28">
-        <v>0.154978</v>
-      </c>
-      <c r="C15" s="28">
-        <v>9.7382999999999997E-2</v>
-      </c>
-      <c r="D15" s="28">
-        <v>1.591</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0.11373900000000001</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="H15" s="28">
-        <v>24.4</v>
-      </c>
-      <c r="I15" s="28">
-        <v>0.36</v>
-      </c>
-      <c r="J15" s="28">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="28">
-        <v>-0.168348</v>
-      </c>
-      <c r="C16" s="28">
-        <v>9.2471999999999999E-2</v>
-      </c>
-      <c r="D16" s="28">
-        <v>-1.821</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="28">
-        <v>21.8</v>
-      </c>
-      <c r="I16" s="28">
-        <v>0.49</v>
-      </c>
-      <c r="J16" s="28">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="28">
-        <v>-2.2300499999999999</v>
-      </c>
-      <c r="C17" s="28">
-        <v>0.73061299999999996</v>
-      </c>
-      <c r="D17" s="28">
-        <v>-3.052</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="28">
-        <v>21.6</v>
-      </c>
-      <c r="I17" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="J17" s="28">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="28" t="s">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="28">
+        <v>20.5</v>
+      </c>
+      <c r="D4" s="28">
+        <v>0.54</v>
+      </c>
+      <c r="E4" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="28">
+        <v>20.5</v>
+      </c>
+      <c r="D5" s="28">
+        <v>0.53</v>
+      </c>
+      <c r="E5" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="28">
+        <v>20.6</v>
+      </c>
+      <c r="D6" s="28">
+        <v>0.53</v>
+      </c>
+      <c r="E6" s="28">
         <v>17</v>
       </c>
-      <c r="B18" s="28">
-        <v>-0.36151800000000001</v>
-      </c>
-      <c r="C18" s="28">
-        <v>0.26652999999999999</v>
-      </c>
-      <c r="D18" s="28">
-        <v>-1.3560000000000001</v>
-      </c>
-      <c r="E18" s="30">
-        <v>0.17712800000000001</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="H18" s="28">
-        <v>21.3</v>
-      </c>
-      <c r="I18" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="J18" s="28">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="H19" s="28">
-        <v>21.9</v>
-      </c>
-      <c r="I19" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="J19" s="28">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="28">
-        <v>21.4</v>
-      </c>
-      <c r="I20" s="28">
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="28">
+        <v>20.7</v>
+      </c>
+      <c r="D7" s="28">
         <v>0.52</v>
       </c>
-      <c r="J20" s="28">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="28">
-        <v>20.82</v>
-      </c>
-      <c r="I22" s="28">
-        <v>0.54</v>
-      </c>
-      <c r="J22" s="28">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="H23" s="28">
-        <v>20.440000000000001</v>
-      </c>
-      <c r="I23" s="28">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J23" s="28">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="F24" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24" s="35">
-        <v>20.56</v>
-      </c>
-      <c r="I24" s="35">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J24" s="35">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="G25" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="34">
+      <c r="E7" s="28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C8" s="28">
+        <v>19.7</v>
+      </c>
+      <c r="D8" s="28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="32">
         <v>-0.78</v>
       </c>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C27" s="34">
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="32">
         <v>0.44800000000000001</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C28" s="34">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="32">
         <v>-0.16</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="E29" t="s">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="E18" t="s">
         <v>1</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G35" s="7" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G36" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G37" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G38" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G39" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G40" s="27"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G41" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G42" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G43" s="7" t="s">
-        <v>213</v>
-      </c>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="7"/>
     </row>
   </sheetData>
+  <sortState ref="B3:E11">
+    <sortCondition ref="C3:C11"/>
+  </sortState>
   <mergeCells count="1">
-    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C1" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="38">
+        <v>42948</v>
+      </c>
+      <c r="D2">
+        <v>1215</v>
+      </c>
+      <c r="E2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2">
+        <v>4.8</v>
+      </c>
+      <c r="H2">
+        <v>0.3</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="38">
+        <v>42948</v>
+      </c>
+      <c r="D3">
+        <v>1245</v>
+      </c>
+      <c r="E3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G3">
+        <v>4.8</v>
+      </c>
+      <c r="H3">
+        <v>0.3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="38">
+        <v>42958</v>
+      </c>
+      <c r="D4">
+        <v>1200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+      <c r="I4">
+        <v>2.5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="38">
+        <v>43006</v>
+      </c>
+      <c r="D5">
+        <v>1200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H5">
+        <v>0.1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="55"/>
+      <c r="C8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" s="56">
+        <v>42948</v>
+      </c>
+      <c r="D9" s="56">
+        <v>42948</v>
+      </c>
+      <c r="E9" s="56">
+        <v>42958</v>
+      </c>
+      <c r="F9" s="56">
+        <v>43006</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="55" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="57">
+        <v>1215</v>
+      </c>
+      <c r="D10" s="57">
+        <v>1245</v>
+      </c>
+      <c r="E10" s="57">
+        <v>1200</v>
+      </c>
+      <c r="F10" s="57">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="55" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B13" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="57">
+        <v>4.8</v>
+      </c>
+      <c r="D13" s="57">
+        <v>4.8</v>
+      </c>
+      <c r="E13" s="57">
+        <v>4</v>
+      </c>
+      <c r="F13" s="57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="D14" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="E14" s="57">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="57">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="57">
+        <v>3</v>
+      </c>
+      <c r="D15" s="57">
+        <v>3</v>
+      </c>
+      <c r="E15" s="57">
+        <v>2.5</v>
+      </c>
+      <c r="F15" s="57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B16" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="57">
+        <v>0.02</v>
+      </c>
+      <c r="E16" s="57">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="18.600000000000001" x14ac:dyDescent="0.3">
+      <c r="B17" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="D17" s="57">
+        <v>0.13</v>
+      </c>
+      <c r="E17" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="58" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H7"/>
   <sheetViews>
@@ -4261,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>214</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
@@ -4277,7 +4376,7 @@
       <c r="E2" s="5">
         <v>0.12</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="33">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -4294,7 +4393,7 @@
       <c r="E3" s="5">
         <v>0.13</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="33">
         <v>0.47</v>
       </c>
     </row>
@@ -4311,7 +4410,7 @@
       <c r="E4" s="5">
         <v>0.94</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="33">
         <v>0.8</v>
       </c>
     </row>
@@ -4328,7 +4427,7 @@
       <c r="E5" s="5">
         <v>0.61</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="33">
         <v>0.89</v>
       </c>
     </row>
@@ -4345,7 +4444,7 @@
       <c r="E6" s="5">
         <v>0.12</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="33">
         <v>0.36</v>
       </c>
     </row>
@@ -4362,7 +4461,7 @@
       <c r="E7" s="5">
         <v>0.2</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="33">
         <v>0.52</v>
       </c>
       <c r="H7" t="s">
@@ -4374,7 +4473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H11"/>
   <sheetViews>
@@ -4465,132 +4564,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4925,7 +4898,7 @@
         <v>2.89</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -4954,14 +4927,14 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="2"/>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -4969,7 +4942,7 @@
         <v>35</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4995,7 +4968,7 @@
         <v>0.22783210000000001</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -5009,12 +4982,12 @@
         <v>0.1661744</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -5027,7 +5000,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" s="7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -5035,17 +5008,17 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.3">
@@ -5058,17 +5031,17 @@
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F20" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.3">
@@ -5076,17 +5049,17 @@
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
